--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/15/seed3/result_data_KNN.xlsx
@@ -525,7 +525,7 @@
         <v>-6.27</v>
       </c>
       <c r="E5" t="n">
-        <v>13.666</v>
+        <v>13.355</v>
       </c>
     </row>
     <row r="6">
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.244</v>
+        <v>13.189</v>
       </c>
     </row>
     <row r="7">
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.492</v>
+        <v>-13.463</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.32</v>
+        <v>-21.255</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
@@ -593,12 +593,12 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>11.92</v>
+        <v>12.443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-20.42</v>
+        <v>-20.712</v>
       </c>
       <c r="B10" t="n">
         <v>9.35</v>
@@ -610,7 +610,7 @@
         <v>-8.93</v>
       </c>
       <c r="E10" t="n">
-        <v>11.996</v>
+        <v>12.525</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.046</v>
+        <v>-21.808</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
@@ -652,7 +652,7 @@
         <v>-21.95</v>
       </c>
       <c r="B13" t="n">
-        <v>6.38</v>
+        <v>6.724000000000001</v>
       </c>
       <c r="C13" t="n">
         <v>-13.63</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.046</v>
+        <v>-21.808</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.266</v>
+        <v>-13.041</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
